--- a/run/output/iecodebook/harmonization_keep.xlsx
+++ b/run/output/iecodebook/harmonization_keep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb501238\Documents\GitHub\iefieldkit\run\output\iecodebook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luizaandrade\Documents\GitHub\iefieldkit\run\output\iecodebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D1428C-8482-4B14-9B96-301B8C24A6D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B4AB23-7C9E-47E8-BB11-C13740C6B85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="483">
   <si>
     <t>list_name</t>
   </si>
@@ -1078,9 +1078,6 @@
     <t/>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>cost</t>
   </si>
   <si>
@@ -1111,12 +1108,6 @@
     <t>gear_ratio</t>
   </si>
   <si>
-    <t>origin</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1228,9 +1219,6 @@
     <t>Gear Ratio</t>
   </si>
   <si>
-    <t>RECODE of foreign (Car type)</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1327,9 +1315,6 @@
     <t>float</t>
   </si>
   <si>
-    <t>byte</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1444,9 +1429,6 @@
     <t/>
   </si>
   <si>
-    <t>origin</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1487,6 +1469,9 @@
   </si>
   <si>
     <t>recode:Second</t>
+  </si>
+  <si>
+    <t>Make</t>
   </si>
 </sst>
 </file>
@@ -1845,8 +1830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26:M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1883,16 +1868,16 @@
         <v>337</v>
       </c>
       <c r="K1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="N1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1925,13 +1910,13 @@
         <v>338</v>
       </c>
       <c r="K2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="M2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="N2" s="1"/>
     </row>
@@ -1965,13 +1950,13 @@
         <v>339</v>
       </c>
       <c r="K3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M3" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="N3" s="1"/>
     </row>
@@ -2005,13 +1990,13 @@
         <v>340</v>
       </c>
       <c r="K4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L4" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M4" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="N4" s="1"/>
     </row>
@@ -2045,13 +2030,13 @@
         <v>341</v>
       </c>
       <c r="K5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L5" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M5" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="N5" s="1"/>
     </row>
@@ -2085,13 +2070,13 @@
         <v>342</v>
       </c>
       <c r="K6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="L6" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M6" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="N6" s="1"/>
     </row>
@@ -2125,13 +2110,13 @@
         <v>343</v>
       </c>
       <c r="K7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="L7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="N7" s="1"/>
     </row>
@@ -2165,13 +2150,13 @@
         <v>344</v>
       </c>
       <c r="K8" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="L8" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="M8" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="N8" s="1"/>
     </row>
@@ -2205,13 +2190,13 @@
         <v>345</v>
       </c>
       <c r="K9" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="L9" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M9" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="N9" s="1"/>
     </row>
@@ -2245,13 +2230,13 @@
         <v>346</v>
       </c>
       <c r="K10" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L10" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M10" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="N10" s="1"/>
     </row>
@@ -2285,13 +2270,13 @@
         <v>347</v>
       </c>
       <c r="K11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L11" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="M11" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="N11" s="1"/>
     </row>
@@ -2325,13 +2310,13 @@
         <v>348</v>
       </c>
       <c r="K12" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L12" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M12" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="N12" s="1"/>
     </row>
@@ -2365,13 +2350,13 @@
         <v>349</v>
       </c>
       <c r="K13" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L13" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="M13" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="N13" s="1"/>
     </row>
@@ -2405,13 +2390,13 @@
         <v>350</v>
       </c>
       <c r="K14" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L14" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M14" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="N14" s="1"/>
     </row>
@@ -2442,16 +2427,16 @@
       </c>
       <c r="I15" s="1"/>
       <c r="J15" t="s">
-        <v>351</v>
+        <v>482</v>
       </c>
       <c r="K15" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L15" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="M15" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="N15" s="1"/>
     </row>
@@ -2482,16 +2467,16 @@
       </c>
       <c r="I16" s="1"/>
       <c r="J16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K16" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L16" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M16" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="N16" s="1"/>
     </row>
@@ -2522,16 +2507,16 @@
       </c>
       <c r="I17" s="1"/>
       <c r="J17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L17" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M17" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="N17" s="1"/>
     </row>
@@ -2562,16 +2547,16 @@
       </c>
       <c r="I18" s="1"/>
       <c r="J18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K18" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L18" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M18" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="N18" s="1"/>
     </row>
@@ -2602,16 +2587,16 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K19" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L19" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="M19" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="N19" s="1"/>
     </row>
@@ -2642,16 +2627,16 @@
       </c>
       <c r="I20" s="1"/>
       <c r="J20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K20" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L20" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M20" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="N20" s="1"/>
     </row>
@@ -2682,16 +2667,16 @@
       </c>
       <c r="I21" s="1"/>
       <c r="J21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K21" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L21" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M21" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="N21" s="1"/>
     </row>
@@ -2722,16 +2707,16 @@
       </c>
       <c r="I22" s="1"/>
       <c r="J22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K22" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L22" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M22" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="N22" s="1"/>
     </row>
@@ -2762,16 +2747,16 @@
       </c>
       <c r="I23" s="1"/>
       <c r="J23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K23" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L23" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M23" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="N23" s="1"/>
     </row>
@@ -2802,16 +2787,16 @@
       </c>
       <c r="I24" s="1"/>
       <c r="J24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K24" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="L24" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M24" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="N24" s="1"/>
     </row>
@@ -2842,16 +2827,16 @@
       </c>
       <c r="I25" s="1"/>
       <c r="J25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K25" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L25" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="M25" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="N25" s="1"/>
     </row>
@@ -2882,16 +2867,16 @@
       </c>
       <c r="I26" s="1"/>
       <c r="J26" t="s">
-        <v>362</v>
+        <v>199</v>
       </c>
       <c r="K26" t="s">
-        <v>401</v>
+        <v>238</v>
       </c>
       <c r="L26" t="s">
-        <v>434</v>
+        <v>271</v>
       </c>
       <c r="M26" t="s">
-        <v>473</v>
+        <v>15</v>
       </c>
       <c r="N26" s="1"/>
     </row>
@@ -2921,17 +2906,14 @@
         <v>323</v>
       </c>
       <c r="I27" s="1"/>
-      <c r="J27" t="s">
-        <v>363</v>
-      </c>
       <c r="K27" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="L27" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="M27" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="N27" s="1"/>
     </row>
@@ -2962,16 +2944,16 @@
       </c>
       <c r="I28" s="1"/>
       <c r="J28" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K28" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="L28" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="M28" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="N28" s="1"/>
     </row>
@@ -3002,16 +2984,16 @@
       </c>
       <c r="I29" s="1"/>
       <c r="J29" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K29" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L29" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="M29" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="N29" s="1"/>
     </row>
@@ -3042,16 +3024,16 @@
       </c>
       <c r="I30" s="1"/>
       <c r="J30" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K30" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="L30" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="M30" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="N30" s="1"/>
     </row>
@@ -3082,16 +3064,16 @@
       </c>
       <c r="I31" s="1"/>
       <c r="J31" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="K31" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L31" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="M31" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="N31" s="1"/>
     </row>
@@ -3122,16 +3104,16 @@
       </c>
       <c r="I32" s="1"/>
       <c r="J32" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="K32" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="L32" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="M32" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="N32" s="1"/>
     </row>
@@ -3162,16 +3144,16 @@
       </c>
       <c r="I33" s="1"/>
       <c r="J33" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="K33" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L33" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M33" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="N33" s="1"/>
     </row>
@@ -3202,16 +3184,16 @@
       </c>
       <c r="I34" s="1"/>
       <c r="J34" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K34" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L34" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="M34" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="N34" s="1"/>
     </row>
@@ -3242,16 +3224,16 @@
       </c>
       <c r="I35" s="1"/>
       <c r="J35" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="K35" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L35" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="M35" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="N35" s="1"/>
     </row>
@@ -3282,16 +3264,16 @@
       </c>
       <c r="I36" s="1"/>
       <c r="J36" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="K36" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L36" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="M36" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="N36" s="1"/>
     </row>
@@ -3322,16 +3304,16 @@
       </c>
       <c r="I37" s="1"/>
       <c r="J37" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K37" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="L37" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="M37" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="N37" s="1"/>
     </row>
@@ -3362,16 +3344,16 @@
       </c>
       <c r="I38" s="1"/>
       <c r="J38" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K38" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L38" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="M38" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="N38" s="1"/>
     </row>
@@ -3402,16 +3384,16 @@
       </c>
       <c r="I39" s="1"/>
       <c r="J39" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K39" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L39" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="M39" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="N39" s="1"/>
     </row>
@@ -3549,7 +3531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
